--- a/API Sheet Templete(BandA).xlsx
+++ b/API Sheet Templete(BandA).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm943\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm943\Desktop\과제\NaverBand\band_mock_server_a_cookie_luis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CF4D34-350B-4573-9EA3-1277C8AC0E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062DDB3B-8944-42C8-8198-BAE116467BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="840" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
   <si>
     <t>Server</t>
   </si>
@@ -1402,6 +1402,10 @@
       </rPr>
       <t>기능</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1621,6 +1625,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1938,10 +1943,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2666,6 +2671,11 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
+    <row r="52" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,8 +2690,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/API Sheet Templete(BandA).xlsx
+++ b/API Sheet Templete(BandA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm943\Desktop\과제\NaverBand\band_mock_server_a_cookie_luis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062DDB3B-8944-42C8-8198-BAE116467BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F87689-84C0-4E4A-8E9C-A82E86706A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="4080" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="1" r:id="rId1"/>
@@ -319,30 +319,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>유저가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 가입한 밴드 조회</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/{userid}/bands</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>/ads/{adsid}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ads/{adsid}/details</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -555,27 +532,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 페이지 광고 내 서브 광고 이미지 조회</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>밴드 소개 페이지 수정</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1406,6 +1362,39 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가입한 밴드 조회</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{userid}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/info</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1945,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2673,7 +2662,7 @@
     </row>
     <row r="52" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2690,8 +2679,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2828,7 +2817,7 @@
       <c r="K7" s="21"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2839,13 +2828,15 @@
         <v>84</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
@@ -2861,18 +2852,20 @@
         <v>84</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2883,13 +2876,15 @@
         <v>84</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="1"/>
@@ -2902,13 +2897,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>152</v>
+        <v>89</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2916,7 +2911,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2924,13 +2919,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2946,13 +2941,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2960,7 +2955,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2968,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>97</v>
@@ -2990,13 +2985,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -3012,13 +3007,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F16" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -3034,13 +3029,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="28" t="s">
         <v>105</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -3056,13 +3051,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3078,13 +3073,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3100,13 +3095,13 @@
         <v>14</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3122,13 +3117,13 @@
         <v>15</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3136,7 +3131,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3144,13 +3139,13 @@
         <v>16</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -3166,13 +3161,13 @@
         <v>17</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -3188,13 +3183,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -3210,13 +3205,13 @@
         <v>19</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -3224,7 +3219,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3232,13 +3227,13 @@
         <v>20</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3254,13 +3249,13 @@
         <v>21</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>124</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3276,13 +3271,13 @@
         <v>22</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3298,13 +3293,13 @@
         <v>23</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>129</v>
+        <v>90</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3312,7 +3307,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3320,13 +3315,13 @@
         <v>24</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -3342,13 +3337,13 @@
         <v>25</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3356,7 +3351,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3364,13 +3359,13 @@
         <v>26</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F32" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>134</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3378,7 +3373,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3386,13 +3381,13 @@
         <v>27</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3408,13 +3403,13 @@
         <v>28</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -3422,7 +3417,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3430,13 +3425,13 @@
         <v>29</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F35" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3452,13 +3447,13 @@
         <v>30</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3474,13 +3469,13 @@
         <v>31</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3496,13 +3491,13 @@
         <v>32</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="28" t="s">
         <v>143</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>140</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3518,13 +3513,13 @@
         <v>33</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H39" s="1"/>
     </row>
@@ -3536,12 +3531,12 @@
         <v>34</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>145</v>
       </c>
       <c r="H40" s="1"/>
@@ -3551,13 +3546,13 @@
         <v>35</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -3566,28 +3561,28 @@
         <v>36</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F42" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="D43" s="25">
         <v>37</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -3596,13 +3591,13 @@
         <v>38</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -3611,43 +3606,43 @@
         <v>39</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D46" s="25">
         <v>40</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="D47" s="25">
         <v>41</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -3656,13 +3651,13 @@
         <v>42</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3670,13 +3665,13 @@
         <v>43</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,13 +3679,13 @@
         <v>44</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3698,13 +3693,13 @@
         <v>45</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,30 +3707,30 @@
         <v>46</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F52" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="25">
         <v>47</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="25">
         <v>48</v>
       </c>
@@ -3743,10 +3738,10 @@
         <v>84</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3754,16 +3749,16 @@
         <v>49</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="25">
         <v>50</v>
       </c>
@@ -3771,24 +3766,15 @@
         <v>85</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" s="25">
         <v>51</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/API Sheet Templete(BandA).xlsx
+++ b/API Sheet Templete(BandA).xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm943\Desktop\과제\NaverBand\band_mock_server_a_cookie_luis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F87689-84C0-4E4A-8E9C-A82E86706A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8558F-33FF-4FA7-9D72-B69955CD0D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="4080" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="1" r:id="rId1"/>
     <sheet name="API Index" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId3"/>
+    <sheet name="2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="231">
   <si>
     <t>Server</t>
   </si>
@@ -511,6 +513,52 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>밴드 소개 페이지 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/enterprise</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사업자 정보 생성</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}maxmember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 최대 멤버수 수정</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/registerinfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -518,44 +566,60 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>메인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 페이지 광고 이미지 조회</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 소개 페이지 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/enterprise</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>밴드</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 사업자 정보 생성</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}maxmember</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입 정보 조회</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 가입 정보 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/registernotice</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/registercondition</t>
+  </si>
+  <si>
+    <t>/bands/{bandid}/registercondition</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 가입 조건 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 멤버 가입 알림글 여부 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 멤버 가입 알림글 여부 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 가입 조건 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/users</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -569,12 +633,31 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 최대 멤버수 수정</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/registerinfo</t>
+      <t xml:space="preserve"> 가입 유저 조회</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가입 유저 탈퇴</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/blockedusers</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/blockedusers/{userid}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -585,98 +668,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>밴드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입 정보 조회</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 가입 정보 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/registernotice</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/registercondition</t>
-  </si>
-  <si>
-    <t>/bands/{bandid}/registercondition</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 가입 조건 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 멤버 가입 알림글 여부 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 멤버 가입 알림글 여부 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 가입 조건 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/users</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>밴드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 가입 유저 조회</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>밴드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 가입 유저 탈퇴</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/blockedusers</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/blockedusers/{userid}</t>
+      <t>밴드에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가입 차단된 유저 조회</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -696,8 +698,31 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 가입 차단된 유저 조회</t>
-    </r>
+      <t xml:space="preserve"> 가입 차단된 유저 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/tag</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 대표 태그 조회</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/tag/{tagid}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -708,25 +733,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>밴드에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 가입 차단된 유저 삭제</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/tag</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>밴드</t>
     </r>
     <r>
@@ -736,12 +742,8 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 대표 태그 조회</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/tag/{tagid}</t>
+      <t xml:space="preserve"> 대표 태그 수정</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -761,8 +763,140 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 대표 태그 수정</t>
-    </r>
+      <t xml:space="preserve"> 대표 태그 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/secretcomment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 비밀 댓글 사용 유무 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 비밀 댓글 사용 유무 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 공동리더 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 공동리더 삭제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 공동리더 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/publicleaders</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/publicleaders/{banduserid}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/leader</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 리더 위임</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">밴드 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/contents</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 게시글 조회</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -773,58 +907,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>밴드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 대표 태그 삭제</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/secretcomment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 비밀 댓글 사용 유무 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 비밀 댓글 사용 유무 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 공동리더 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 공동리더 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 공동리더 생성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/publicleaders</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/publicleaders/{banduserid}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/leader</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>밴드</t>
+      <t>밴드 게시글</t>
     </r>
     <r>
       <rPr>
@@ -833,89 +916,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 리더 위임</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>밴드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 삭제</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">밴드 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/contents</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 게시글 조회</t>
+      <t xml:space="preserve"> 생성</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -935,7 +937,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 생성</t>
+      <t xml:space="preserve"> 수정</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -956,8 +958,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 수정</t>
-    </r>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/contents/{contentsid}/comment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 게시글의 댓글 조회</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -968,7 +978,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>밴드 게시글</t>
+      <t>밴드 게시글의 댓글</t>
     </r>
     <r>
       <rPr>
@@ -977,16 +987,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 삭제</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/contents/{contentsid}/comment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드 게시글의 댓글 조회</t>
+      <t xml:space="preserve"> 생성</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1006,7 +1008,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 생성</t>
+      <t xml:space="preserve"> 수정</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1027,8 +1029,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 수정</t>
-    </r>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/contents/{contentsid}/comment/{commentid}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/contents/{contentsid}/expression</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1039,7 +1049,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>밴드 게시글의 댓글</t>
+      <t>밴드 게시글의 표정</t>
     </r>
     <r>
       <rPr>
@@ -1048,16 +1058,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 삭제</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/contents/{contentsid}/comment/{commentid}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/contents/{contentsid}/expression</t>
+      <t xml:space="preserve"> 생성</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1077,7 +1079,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 생성</t>
+      <t xml:space="preserve"> 수정</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1098,8 +1100,91 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 수정</t>
-    </r>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/contents/{contentid}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/contents/{contentsid}/text</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">밴드 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/contents/{contentsid}/address</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1110,7 +1195,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>밴드 게시글의 표정</t>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1119,26 +1212,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 삭제</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/contents/{contentid}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/contents/{contentsid}/text</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
+      <t>게시글의 주소 복사</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">밴드 </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1147,63 +1229,12 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>게시글의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>본문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>복사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>기능</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/bands/{bandid}/contents/{contentsid}/address</t>
+    <t>/bands/{bandid}/contents/{contentsid}/bookmark</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1231,7 +1262,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>게시글의 주소 복사</t>
+      <t>게시글의 북마크</t>
     </r>
     <r>
       <rPr>
@@ -1253,7 +1284,65 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/bands/{bandid}/contents/{contentsid}/bookmark</t>
+    <t>/bands/{bandid}/contents/{contentsid}/block</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">밴드 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1264,6 +1353,220 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>유저가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가입한 밴드 조회</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{userid}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bands/{bandid}/info</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Parameters</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>isSuccess</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>요청 성공 여부</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>응답 코드</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>응답 메시지</t>
+  </si>
+  <si>
+    <t>Response Sample</t>
+  </si>
+  <si>
+    <t>Result Code</t>
+  </si>
+  <si>
+    <t>Sample Input</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴadsId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴadsMainImg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴadsUrl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cookieserver.site/kakao_friends4.jpg</t>
+  </si>
+  <si>
+    <t>https://naver.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대표사진 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">링크 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않은 광고 id입니다.</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen Image</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴbandId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴbandName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴbandImg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>밴드</t>
     </r>
     <r>
@@ -1272,22 +1575,284 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> A</t>
+    </r>
+  </si>
+  <si>
+    <t>www.bandImg1.com</t>
+  </si>
+  <si>
+    <t>유저가 가입한 밴드 조회 성공</t>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이름</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">밴드 이미지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "result": [
+        {
+            "bandId": 1,
+            "bandName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A",
+            "bandImg": "www.bandImg1.com"
+        },
+        {
+            "bandId": 2,
+            "bandName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> B",
+            "bandImg": "www.bandImg2.com"
+        },
+        {
+            "bandId": 5,
+            "bandName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E",
+            "bandImg": "www.bandImg5.com"
+        }
+    ],
+    "isSuccess": true,
+    "code": 100,
+    "message": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="돋움"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밴드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않은 유저 id입니다.</t>
+  </si>
+  <si>
+    <t>메인 페이지 광고 이미지 랜덤 조회 성공</t>
+  </si>
+  <si>
+    <t>/ads</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>게시글의 북마크</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1298,37 +1863,32 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/contents/{contentsid}/block</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
+      <t>광고</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">밴드 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>게시글</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1339,13 +1899,14 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>차단</t>
+      <t>랜덤</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1356,45 +1917,176 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "result": {
+        "adsId": 2,
+        "adsMainImg": "https://cookieserver.site/kakao_friends2.jpg",
+        "adsUrl": "https://musinsa.com"
+    },
+    "isSuccess": true,
+    "code": 100,
+    "message": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>유저가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 가입한 밴드 조회</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{userid}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bands/{bandid}/info</t>
+      <t xml:space="preserve"> 돌아오는 광고는 랜덤으로 생성</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1402,7 +2094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1511,8 +2203,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,6 +2250,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1554,10 +2279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1589,16 +2315,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1615,9 +2335,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1630,6 +2399,412 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291790</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779977E6-73DA-4176-AAFF-EC42C53E1636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15201900" y="333375"/>
+          <a:ext cx="2720665" cy="6640438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CB10DA-FFA6-4678-AEB5-D640B3A374E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15078075" y="1171575"/>
+          <a:ext cx="2924175" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1323662</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8320C094-58D6-4F4F-912D-94885FD955EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="5181600"/>
+          <a:ext cx="2504762" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009071</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144E2D4F-1AC3-48FB-BBBD-C07724727CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="5829300"/>
+          <a:ext cx="4628571" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291790</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91981E3-34EA-4BFD-BC25-989AD150B763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15201900" y="333375"/>
+          <a:ext cx="2720665" cy="6640438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413F0141-6B67-4B52-8A1A-4D50EA4548BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15106650" y="2266950"/>
+          <a:ext cx="2924175" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247324</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AE1440-7F0A-4C93-A619-6D15BE8C996D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="5191125"/>
+          <a:ext cx="2609524" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571133</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>132908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E3A36D-68FD-4F2B-8E5B-8CE5C439A3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="5838825"/>
+          <a:ext cx="2933333" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1934,7 +3109,7 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +3162,7 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>65</v>
       </c>
       <c r="I3" s="1"/>
@@ -1998,7 +3173,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>64</v>
       </c>
       <c r="E4" s="1"/>
@@ -2015,7 +3190,7 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="1"/>
@@ -2043,7 +3218,7 @@
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="31" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2070,7 +3245,7 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="1"/>
@@ -2079,7 +3254,7 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2089,7 +3264,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="1"/>
@@ -2098,7 +3273,7 @@
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2108,7 +3283,7 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="1"/>
@@ -2132,7 +3307,7 @@
       <c r="H11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>67</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -2146,7 +3321,7 @@
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2166,7 +3341,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2175,7 +3350,7 @@
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="33" t="s">
         <v>82</v>
       </c>
       <c r="G15" s="7"/>
@@ -2187,14 +3362,14 @@
       <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="24" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="7"/>
@@ -2204,7 +3379,7 @@
       <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="7"/>
@@ -2244,7 +3419,7 @@
       <c r="H19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="31" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2253,7 +3428,7 @@
       <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="7"/>
@@ -2268,7 +3443,7 @@
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="24" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="7"/>
@@ -2276,7 +3451,7 @@
       <c r="H21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2285,7 +3460,7 @@
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="7"/>
@@ -2293,7 +3468,7 @@
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="24" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2315,7 +3490,7 @@
       <c r="H24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="24" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="8"/>
@@ -2327,7 +3502,7 @@
       <c r="H25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2390,7 +3565,7 @@
       <c r="H30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="24" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2661,8 +3836,8 @@
       <c r="F49" s="1"/>
     </row>
     <row r="52" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="38" t="s">
-        <v>173</v>
+      <c r="D52" s="36" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2679,13 +3854,14 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="53"/>
     <col min="6" max="6" width="52.140625" customWidth="1"/>
     <col min="7" max="7" width="37.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
@@ -2697,7 +3873,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2711,7 +3887,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2726,13 +3902,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2743,10 +3919,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2759,10 +3935,10 @@
       <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2799,20 +3975,24 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="22">
+      <c r="D7" s="52">
         <v>1</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>175</v>
+      </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="1"/>
@@ -2821,70 +4001,64 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="22">
+      <c r="D8" s="52">
         <v>2</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26" t="s">
-        <v>176</v>
+      <c r="I8" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="25">
+      <c r="D9" s="20">
         <v>3</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="E9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="24"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="25">
+      <c r="D10" s="20">
         <v>4</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>148</v>
+      <c r="F10" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>147</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="26" t="s">
-        <v>176</v>
-      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="1"/>
@@ -2893,38 +4067,35 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="25">
+      <c r="D11" s="20">
         <v>5</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="25">
+      <c r="D12" s="20">
         <v>6</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H12" s="7"/>
@@ -2937,16 +4108,16 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="25">
+      <c r="D13" s="20">
         <v>7</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H13" s="7"/>
@@ -2959,16 +4130,16 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="25">
+      <c r="D14" s="20">
         <v>8</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="25" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="7"/>
@@ -2981,16 +4152,16 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="25">
+      <c r="D15" s="20">
         <v>9</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="27" t="s">
         <v>100</v>
       </c>
       <c r="H15" s="7"/>
@@ -3003,16 +4174,16 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="25">
+      <c r="D16" s="20">
         <v>10</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="26" t="s">
         <v>102</v>
       </c>
       <c r="H16" s="7"/>
@@ -3025,16 +4196,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="25">
+      <c r="D17" s="20">
         <v>11</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="34" t="s">
         <v>107</v>
       </c>
       <c r="H17" s="7"/>
@@ -3047,17 +4218,17 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="25">
+      <c r="D18" s="20">
         <v>12</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>109</v>
+      <c r="G18" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3069,17 +4240,17 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="25">
+      <c r="D19" s="20">
         <v>13</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>111</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3091,17 +4262,17 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="25">
+      <c r="D20" s="20">
         <v>14</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3113,16 +4284,16 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="25">
+      <c r="D21" s="20">
         <v>15</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="27" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="7"/>
@@ -3135,17 +4306,17 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="25">
+      <c r="D22" s="20">
         <v>16</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -3157,105 +4328,105 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="25">
+      <c r="D23" s="20">
         <v>17</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>116</v>
+      <c r="F23" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="25">
+      <c r="D24" s="20">
         <v>18</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>121</v>
+      <c r="F24" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="23"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="25">
+      <c r="D25" s="20">
         <v>19</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>122</v>
+      <c r="F25" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="23"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="25">
+      <c r="D26" s="20">
         <v>20</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>120</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="23"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="25">
+      <c r="D27" s="20">
         <v>21</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>123</v>
+      <c r="F27" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3267,17 +4438,17 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="25">
+      <c r="D28" s="20">
         <v>22</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>125</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3289,17 +4460,17 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="25">
+      <c r="D29" s="20">
         <v>23</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="29" t="s">
-        <v>126</v>
+      <c r="G29" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3311,17 +4482,17 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="25">
+      <c r="D30" s="20">
         <v>24</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>129</v>
+      <c r="F30" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -3333,17 +4504,17 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="25">
+      <c r="D31" s="20">
         <v>25</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>130</v>
+      <c r="F31" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3355,17 +4526,17 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="25">
+      <c r="D32" s="20">
         <v>26</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3377,17 +4548,17 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="25">
+      <c r="D33" s="20">
         <v>27</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>134</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3399,17 +4570,17 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="25">
+      <c r="D34" s="20">
         <v>28</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>135</v>
+      <c r="F34" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -3421,17 +4592,17 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="25">
+      <c r="D35" s="20">
         <v>29</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>137</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3443,17 +4614,17 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="25">
+      <c r="D36" s="20">
         <v>30</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>138</v>
+      <c r="F36" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3465,17 +4636,17 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="25">
+      <c r="D37" s="20">
         <v>31</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>139</v>
+      <c r="F37" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3487,17 +4658,17 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="25">
+      <c r="D38" s="20">
         <v>32</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>140</v>
+      <c r="F38" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3509,17 +4680,17 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="25">
+      <c r="D39" s="20">
         <v>33</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="37" t="s">
+      <c r="F39" s="24" t="s">
         <v>141</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="H39" s="1"/>
     </row>
@@ -3527,259 +4698,1604 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="25">
+      <c r="D40" s="20">
         <v>34</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D41" s="20">
+        <v>35</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D41" s="25">
-        <v>35</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="G41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D42" s="20">
+        <v>36</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="D43" s="20">
+        <v>37</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="D44" s="20">
+        <v>38</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="D45" s="20">
+        <v>39</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D42" s="25">
-        <v>36</v>
-      </c>
-      <c r="E42" s="26" t="s">
+      <c r="F45" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D46" s="20">
+        <v>40</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="D43" s="25">
-        <v>37</v>
-      </c>
-      <c r="E43" s="26" t="s">
+      <c r="F46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="D47" s="20">
+        <v>41</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="D44" s="25">
-        <v>38</v>
-      </c>
-      <c r="E44" s="26" t="s">
+      <c r="F47" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="20">
+        <v>42</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F48" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="20">
+        <v>43</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="20">
+        <v>44</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="20">
+        <v>45</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="20">
+        <v>46</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="20">
+        <v>47</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="D45" s="25">
-        <v>39</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D46" s="25">
-        <v>40</v>
-      </c>
-      <c r="E46" s="26" t="s">
+      <c r="G53" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="20">
+        <v>48</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="D47" s="25">
-        <v>41</v>
-      </c>
-      <c r="E47" s="26" t="s">
+      <c r="F54" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="20">
+        <v>49</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="25">
-        <v>42</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="25">
-        <v>43</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="25">
-        <v>44</v>
-      </c>
-      <c r="E50" s="26" t="s">
+      <c r="F55" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="20">
+        <v>50</v>
+      </c>
+      <c r="E56" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="25">
-        <v>45</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="25">
-        <v>46</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="25">
-        <v>47</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="25">
-        <v>48</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="25">
-        <v>49</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G55" s="27" t="s">
+      <c r="F56" s="24" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="56" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="25">
-        <v>50</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="26" t="s">
+      <c r="G56" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G56" s="27" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="57" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="25">
+      <c r="D57" s="20">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" location="'1'!A1" display="'1'!A1" xr:uid="{2F3E0DE6-84FD-4E51-BE23-46772220186F}"/>
+    <hyperlink ref="D8" location="'2'!A1" display="'2'!A1" xr:uid="{1B530969-7C02-4FFA-A39C-C0B15E8BD765}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF5BD5-565A-4AF1-ABE6-6C7221FCC215}">
+  <dimension ref="A1:N60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="J2" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="44">
+        <v>4</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="39">
+        <v>100</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="39">
+        <v>100</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="39">
+        <v>200</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+      <c r="B50" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A09942-78AF-4FE6-BE09-4AF4D653A7DA}">
+  <dimension ref="A1:N60"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="J2" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="39">
+        <v>100</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="39">
+        <v>100</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="39">
+        <v>200</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>